--- a/data_capture/excels/MDNE3_SA_dados.xlsx
+++ b/data_capture/excels/MDNE3_SA_dados.xlsx
@@ -961,7 +961,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1307"/>
+  <dimension ref="A1:H1309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34946,6 +34946,58 @@
         <v>0</v>
       </c>
       <c r="H1307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:8">
+      <c r="A1308" s="2">
+        <v>45796</v>
+      </c>
+      <c r="B1308">
+        <v>19.89999961853027</v>
+      </c>
+      <c r="C1308">
+        <v>20.25</v>
+      </c>
+      <c r="D1308">
+        <v>19.67000007629395</v>
+      </c>
+      <c r="E1308">
+        <v>19.69000053405762</v>
+      </c>
+      <c r="F1308">
+        <v>802400</v>
+      </c>
+      <c r="G1308">
+        <v>0</v>
+      </c>
+      <c r="H1308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:8">
+      <c r="A1309" s="2">
+        <v>45797</v>
+      </c>
+      <c r="B1309">
+        <v>19.89999961853027</v>
+      </c>
+      <c r="C1309">
+        <v>19.89999961853027</v>
+      </c>
+      <c r="D1309">
+        <v>19.1200008392334</v>
+      </c>
+      <c r="E1309">
+        <v>19.39999961853027</v>
+      </c>
+      <c r="F1309">
+        <v>397800</v>
+      </c>
+      <c r="G1309">
+        <v>0</v>
+      </c>
+      <c r="H1309">
         <v>0</v>
       </c>
     </row>
@@ -34999,34 +35051,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="C2">
-        <v>9.102907207179364</v>
+        <v>9.119416522793049</v>
       </c>
       <c r="D2">
-        <v>8.930667799539265</v>
+        <v>8.930668193665188</v>
       </c>
       <c r="E2">
         <v>5.078599209562567</v>
       </c>
       <c r="F2">
-        <v>3.135296024381578</v>
+        <v>3.161195213604712</v>
       </c>
       <c r="G2">
         <v>4.235359707327136</v>
       </c>
       <c r="H2">
-        <v>6.163789862802705</v>
+        <v>6.168581159644239</v>
       </c>
       <c r="I2">
-        <v>11.30706961526339</v>
+        <v>11.3094652264846</v>
       </c>
       <c r="J2">
-        <v>5.143279752460684</v>
+        <v>5.140884066840362</v>
       </c>
       <c r="K2">
-        <v>19.55999946594238</v>
+        <v>19.89999961853027</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -35034,31 +35086,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="C3">
-        <v>9.305318070783679</v>
+        <v>9.321785474053527</v>
       </c>
       <c r="D3">
-        <v>9.103148950167139</v>
+        <v>9.117522150881296</v>
       </c>
       <c r="E3">
         <v>4.886953335211241</v>
       </c>
       <c r="F3">
-        <v>3.182689254158373</v>
+        <v>3.208000990229865</v>
       </c>
       <c r="G3">
         <v>4.436587237814106</v>
       </c>
       <c r="H3">
-        <v>6.324292694507683</v>
+        <v>6.324292801154724</v>
       </c>
       <c r="I3">
-        <v>11.52936506271362</v>
+        <v>11.53943903575719</v>
       </c>
       <c r="J3">
-        <v>5.20507236820594</v>
+        <v>5.215146234602471</v>
       </c>
       <c r="K3">
         <v>20.45999908447266</v>
@@ -35069,34 +35121,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="C4">
-        <v>8.87161779147611</v>
+        <v>8.887708590660036</v>
       </c>
       <c r="D4">
-        <v>8.681529823460178</v>
+        <v>8.686320569451775</v>
       </c>
       <c r="E4">
         <v>5.471471786499023</v>
       </c>
       <c r="F4">
-        <v>3.094174849878689</v>
+        <v>3.119067743215453</v>
       </c>
       <c r="G4">
         <v>3.526272494388422</v>
       </c>
       <c r="H4">
-        <v>5.97933118085567</v>
+        <v>5.979331284334188</v>
       </c>
       <c r="I4">
-        <v>11.03876604376327</v>
+        <v>11.0411618299078</v>
       </c>
       <c r="J4">
-        <v>5.059434862907603</v>
+        <v>5.061830545573608</v>
       </c>
       <c r="K4">
-        <v>19.47999954223633</v>
+        <v>19.67000007629395</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -35104,19 +35156,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="C5">
-        <v>9.095410656965527</v>
+        <v>9.111388622438506</v>
       </c>
       <c r="D5">
-        <v>8.901921272277832</v>
+        <v>8.906712532043457</v>
       </c>
       <c r="E5">
         <v>5.749357223510742</v>
       </c>
       <c r="F5">
-        <v>3.149221961998602</v>
+        <v>3.17321452878467</v>
       </c>
       <c r="G5">
         <v>4.129954814910889</v>
@@ -35125,10 +35177,10 @@
         <v>6.142230033874512</v>
       </c>
       <c r="I5">
-        <v>11.31425666809082</v>
+        <v>11.31904768943787</v>
       </c>
       <c r="J5">
-        <v>5.172026634216309</v>
+        <v>5.176817655563354</v>
       </c>
       <c r="K5">
         <v>19.76000022888184</v>
@@ -35139,31 +35191,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="C6">
-        <v>434663.1699846861</v>
+        <v>434916.131498471</v>
       </c>
       <c r="D6">
-        <v>333550</v>
+        <v>333900</v>
       </c>
       <c r="E6">
         <v>156400</v>
       </c>
       <c r="F6">
-        <v>537921.0269620202</v>
+        <v>537606.444932034</v>
       </c>
       <c r="G6">
         <v>35500</v>
       </c>
       <c r="H6">
-        <v>209675</v>
+        <v>209825</v>
       </c>
       <c r="I6">
-        <v>530950</v>
+        <v>531525</v>
       </c>
       <c r="J6">
-        <v>321275</v>
+        <v>321700</v>
       </c>
       <c r="K6">
         <v>15222400</v>
@@ -35174,10 +35226,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="C7">
-        <v>0.0004977029096477795</v>
+        <v>0.0004969418960244649</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -35186,7 +35238,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.01798629731965578</v>
+        <v>0.01797254106730326</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -35209,7 +35261,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="C8">
         <v>0</v>
